--- a/banks/nymbusdigital/catalog/Booyah_Bank_Catalog.xlsx
+++ b/banks/nymbusdigital/catalog/Booyah_Bank_Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/nymbusdigital/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADCDC86-5C66-4146-9CF6-251D1B3D6087}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D2664-F10C-AC4A-AF7C-03175C53E33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="622">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1902,12 +1902,6 @@
   </si>
   <si>
     <t>billPay-ipay-p2p-payments</t>
-  </si>
-  <si>
-    <t>atm-locations</t>
-  </si>
-  <si>
-    <t>ATM Locations</t>
   </si>
   <si>
     <t>iPay - Bill Payments</t>
@@ -2539,29 +2533,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2580,7 +2552,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3584,22 +3578,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3609,66 +3603,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="119">
+      <c r="H8" s="111">
         <v>2</v>
       </c>
-      <c r="I8" s="119"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="119" t="s">
+      <c r="C10" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="119"/>
-      <c r="F10" s="119"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3686,325 +3680,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="116"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="114"/>
+      <c r="I14" s="116"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="114"/>
+      <c r="I15" s="116"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="116"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="114"/>
+      <c r="I17" s="116"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="114" t="s">
+      <c r="H18" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="116"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="114" t="s">
+      <c r="H19" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="114"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="116"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="114" t="s">
+      <c r="H21" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="114"/>
+      <c r="I21" s="116"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="114" t="s">
+      <c r="C22" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="114" t="s">
+      <c r="H22" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="114"/>
+      <c r="I22" s="116"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="114" t="s">
+      <c r="H23" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="114"/>
+      <c r="I23" s="116"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="114" t="s">
+      <c r="H24" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="114"/>
+      <c r="I24" s="116"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="111" t="s">
+      <c r="H25" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="111"/>
+      <c r="I25" s="118"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="111" t="s">
+      <c r="C26" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="111" t="s">
+      <c r="H26" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="111"/>
+      <c r="I26" s="118"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="111" t="s">
+      <c r="C27" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="111" t="s">
+      <c r="H27" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="111"/>
+      <c r="I27" s="118"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="111" t="s">
+      <c r="H28" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="111"/>
+      <c r="I28" s="118"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="111" t="s">
+      <c r="H29" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="111"/>
+      <c r="I29" s="118"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4017,504 +4011,405 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="111" t="s">
+      <c r="C31" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="111" t="s">
+      <c r="H31" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="118"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="113" t="s">
+      <c r="C32" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="111" t="s">
+      <c r="H32" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="111"/>
+      <c r="I32" s="118"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="112" t="s">
+      <c r="H33" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="112"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="112" t="s">
+      <c r="C34" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="112" t="s">
+      <c r="H34" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="112"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
+      <c r="C36" s="122"/>
+      <c r="D36" s="122"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="121"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
+      <c r="C39" s="122"/>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
+      <c r="C42" s="122"/>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="111"/>
-      <c r="I43" s="111"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="121"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="108"/>
-      <c r="E57" s="108"/>
-      <c r="F57" s="108"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="122"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
+      <c r="H59" s="121"/>
+      <c r="I59" s="121"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="108"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="108"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="122"/>
+      <c r="E60" s="122"/>
+      <c r="F60" s="122"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
+      <c r="H60" s="122"/>
+      <c r="I60" s="122"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="108"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="108"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="108"/>
-      <c r="D62" s="108"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="108"/>
+      <c r="H62" s="122"/>
+      <c r="I62" s="122"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4531,6 +4426,105 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9056,7 +9050,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="108" t="s">
         <v>613</v>
       </c>
       <c r="B51" t="s">
@@ -9738,10 +9732,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -10019,7 +10013,7 @@
         <v>521</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18">
@@ -10030,7 +10024,7 @@
         <v>521</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18">
@@ -10041,23 +10035,16 @@
         <v>521</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="70" t="s">
-        <v>619</v>
-      </c>
-      <c r="B24" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>620</v>
-      </c>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
+      <c r="H30" s="78"/>
+      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" ht="18">
       <c r="H31" s="78"/>
-      <c r="I31"/>
+      <c r="I31" s="78"/>
     </row>
     <row r="32" spans="1:9" ht="18">
       <c r="H32" s="78"/>
@@ -10066,10 +10053,6 @@
     <row r="33" spans="8:9" ht="18">
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
-    </row>
-    <row r="34" spans="8:9" ht="18">
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/banks/nymbusdigital/catalog/Booyah_Bank_Catalog.xlsx
+++ b/banks/nymbusdigital/catalog/Booyah_Bank_Catalog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jigneshpatel/Documents/GitHub/nymbusolbapp/banks/nymbusdigital/catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D2664-F10C-AC4A-AF7C-03175C53E33D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D65815-DBE9-D74E-AEA1-17190460B467}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4180" yWindow="3280" windowWidth="34480" windowHeight="16420" tabRatio="826" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_VersionHistory" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,9 @@
     <sheet name="ProductTypesStatusTypesMapping" sheetId="13" r:id="rId15"/>
     <sheet name="GlobalSystemParameter" sheetId="14" r:id="rId16"/>
     <sheet name="ClientCategories" sheetId="21" r:id="rId17"/>
-    <sheet name="Disclaimers" sheetId="17" r:id="rId18"/>
-    <sheet name="FeatureToggle" sheetId="22" r:id="rId19"/>
-    <sheet name="DateIntervalLimits" sheetId="23" r:id="rId20"/>
-    <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId21"/>
+    <sheet name="FeatureToggle" sheetId="22" r:id="rId18"/>
+    <sheet name="DateIntervalLimits" sheetId="23" r:id="rId19"/>
+    <sheet name="ClientTransactionStatusTypes" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="616">
   <si>
     <t>Catalogue Specification</t>
   </si>
@@ -1496,33 +1495,6 @@
     <t>Estate</t>
   </si>
   <si>
-    <t>DisclaimerID   </t>
-  </si>
-  <si>
-    <t>Disclaimers  - real disclaimers entites</t>
-  </si>
-  <si>
-    <t>Disclaimers</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>DisclaimerVersion</t>
-  </si>
-  <si>
-    <t>ValidFrom</t>
-  </si>
-  <si>
-    <t>ValidTo</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Powell</t>
-  </si>
-  <si>
     <t>OHIO</t>
   </si>
   <si>
@@ -1595,9 +1567,6 @@
     <t>1-888-597-7137</t>
   </si>
   <si>
-    <t>9961 Brewster LN</t>
-  </si>
-  <si>
     <t>Digital Savings</t>
   </si>
   <si>
@@ -1823,21 +1792,6 @@
     <t>POPio virtual branch</t>
   </si>
   <si>
-    <t>DisclaimerTypeCode, DisclaimerVersion</t>
-  </si>
-  <si>
-    <t>post-login</t>
-  </si>
-  <si>
-    <t>ver2019</t>
-  </si>
-  <si>
-    <t>01-01-2019</t>
-  </si>
-  <si>
-    <t>statements-electronic-delivery</t>
-  </si>
-  <si>
     <t>customer.account.roles.Business Signer RO</t>
   </si>
   <si>
@@ -1911,6 +1865,33 @@
   </si>
   <si>
     <t>iPay - External transfers</t>
+  </si>
+  <si>
+    <t>PO Box  1437</t>
+  </si>
+  <si>
+    <t>WESTERVILLE</t>
+  </si>
+  <si>
+    <t>DAILYLIMIT</t>
+  </si>
+  <si>
+    <t>WEEKLYLIMIT</t>
+  </si>
+  <si>
+    <t>MONTHLYLIMIT</t>
+  </si>
+  <si>
+    <t>EN = daily limit</t>
+  </si>
+  <si>
+    <t>EN = weekly limit</t>
+  </si>
+  <si>
+    <t>EN = monthly limit</t>
+  </si>
+  <si>
+    <t>833</t>
   </si>
 </sst>
 </file>
@@ -2296,7 +2277,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2434,16 +2415,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
@@ -2518,7 +2494,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2534,6 +2509,29 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2552,28 +2550,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3578,22 +3572,22 @@
     </row>
     <row r="6" spans="1:9" ht="153" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -3603,66 +3597,66 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="116">
         <v>2</v>
       </c>
-      <c r="I8" s="111"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
       <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -3680,325 +3674,325 @@
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="115" t="s">
+      <c r="H13" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="115"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="9">
         <v>1</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="116" t="s">
+      <c r="H14" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="116"/>
+      <c r="I14" s="111"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="10">
         <v>43099</v>
       </c>
-      <c r="H15" s="116" t="s">
+      <c r="H15" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="116"/>
+      <c r="I15" s="111"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>3</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="10">
         <v>43111</v>
       </c>
-      <c r="H16" s="116" t="s">
+      <c r="H16" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="116"/>
+      <c r="I16" s="111"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="10">
         <v>43122</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="H17" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="116"/>
+      <c r="I17" s="111"/>
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1">
       <c r="B18" s="9">
         <v>5</v>
       </c>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="10">
         <v>43136</v>
       </c>
-      <c r="H18" s="116" t="s">
+      <c r="H18" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="116"/>
+      <c r="I18" s="111"/>
     </row>
     <row r="19" spans="1:9" ht="27" customHeight="1">
       <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="10">
         <v>43139</v>
       </c>
-      <c r="H19" s="116" t="s">
+      <c r="H19" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="116"/>
+      <c r="I19" s="111"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="117" t="s">
+      <c r="C20" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="10">
         <v>43143</v>
       </c>
-      <c r="H20" s="116" t="s">
+      <c r="H20" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="116"/>
+      <c r="I20" s="111"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="9">
         <v>8</v>
       </c>
-      <c r="C21" s="117" t="s">
+      <c r="C21" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="10">
         <v>43166</v>
       </c>
-      <c r="H21" s="116" t="s">
+      <c r="H21" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="116"/>
+      <c r="I21" s="111"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="B22" s="9">
         <v>9</v>
       </c>
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="10">
         <v>43167</v>
       </c>
-      <c r="H22" s="116" t="s">
+      <c r="H22" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="116"/>
+      <c r="I22" s="111"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="B23" s="9">
         <v>10</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
       <c r="G23" s="10">
         <v>43203</v>
       </c>
-      <c r="H23" s="116" t="s">
+      <c r="H23" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="116"/>
+      <c r="I23" s="111"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="B24" s="9">
         <v>11</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="10">
         <v>43236</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="116"/>
+      <c r="I24" s="111"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="118" t="s">
+      <c r="C25" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="13">
         <v>43238</v>
       </c>
-      <c r="H25" s="118" t="s">
+      <c r="H25" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="118"/>
+      <c r="I25" s="108"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
         <v>13</v>
       </c>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
       <c r="G26" s="13">
         <v>43256</v>
       </c>
-      <c r="H26" s="118" t="s">
+      <c r="H26" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="118"/>
+      <c r="I26" s="108"/>
     </row>
     <row r="27" spans="1:9">
       <c r="B27" s="12">
         <v>14</v>
       </c>
-      <c r="C27" s="118" t="s">
+      <c r="C27" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="10">
         <v>43265</v>
       </c>
-      <c r="H27" s="118" t="s">
+      <c r="H27" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="118"/>
+      <c r="I27" s="108"/>
     </row>
     <row r="28" spans="1:9">
       <c r="B28" s="12">
         <v>15</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
+      <c r="D28" s="108"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
       <c r="G28" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="118" t="s">
+      <c r="H28" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="118"/>
+      <c r="I28" s="108"/>
     </row>
     <row r="29" spans="1:9">
       <c r="B29" s="12">
         <v>16</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="118"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
       <c r="G29" s="10">
         <v>43411</v>
       </c>
-      <c r="H29" s="118" t="s">
+      <c r="H29" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="118"/>
+      <c r="I29" s="108"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="12">
         <v>17</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="118"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
       <c r="G30" s="10">
         <v>43333</v>
       </c>
@@ -4011,405 +4005,504 @@
       <c r="B31" s="12">
         <v>18</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
       <c r="G31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="118" t="s">
+      <c r="H31" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="118"/>
+      <c r="I31" s="108"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="12">
         <v>19</v>
       </c>
-      <c r="C32" s="119" t="s">
+      <c r="C32" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
       <c r="G32" s="16">
         <v>43346</v>
       </c>
-      <c r="H32" s="118" t="s">
+      <c r="H32" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="118"/>
+      <c r="I32" s="108"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1">
       <c r="B33" s="17">
         <v>20</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
       <c r="G33" s="18">
         <v>43347</v>
       </c>
-      <c r="H33" s="120" t="s">
+      <c r="H33" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="120"/>
+      <c r="I33" s="109"/>
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1">
       <c r="B34" s="17">
         <v>21</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
       <c r="G34" s="18">
         <v>43349</v>
       </c>
-      <c r="H34" s="120" t="s">
+      <c r="H34" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="120"/>
+      <c r="I34" s="109"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" s="12"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="19"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
     </row>
     <row r="36" spans="1:9">
       <c r="B36" s="12"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="19"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="118"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="108"/>
     </row>
     <row r="37" spans="1:9">
       <c r="B37" s="12"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="121"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="19"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
     </row>
     <row r="38" spans="1:9">
       <c r="B38" s="12"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="19"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
     </row>
     <row r="39" spans="1:9">
       <c r="B39" s="12"/>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="122"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
       <c r="G39" s="19"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="118"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
     </row>
     <row r="40" spans="1:9">
       <c r="B40" s="12"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="19"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="118"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
       <c r="G41" s="19"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="118"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="12"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
       <c r="G42" s="19"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
     </row>
     <row r="43" spans="1:9">
       <c r="B43" s="12"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
       <c r="G43" s="19"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="118"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
     </row>
     <row r="44" spans="1:9">
       <c r="B44" s="12"/>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
       <c r="G44" s="19"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="118"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" spans="1:9">
       <c r="B45" s="12"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
       <c r="G45" s="19"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
     </row>
     <row r="46" spans="1:9">
       <c r="B46" s="12"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="105"/>
       <c r="G46" s="19"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
     </row>
     <row r="47" spans="1:9">
       <c r="B47" s="12"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
       <c r="G47" s="19"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1"/>
       <c r="B48" s="12"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="107"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="118"/>
-      <c r="I48" s="118"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="12"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="118"/>
-      <c r="I49" s="118"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
       <c r="G50" s="19"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="118"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
       <c r="G51" s="19"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="122"/>
-      <c r="F52" s="122"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105"/>
       <c r="G52" s="19"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="121"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1"/>
       <c r="B53" s="12"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
       <c r="G53" s="19"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1"/>
       <c r="B54" s="12"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="105"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="121"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1"/>
       <c r="B55" s="12"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
       <c r="G56" s="19"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="121"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
       <c r="G57" s="19"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="121"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
       <c r="G58" s="19"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="121"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
       <c r="G59" s="19"/>
-      <c r="H59" s="121"/>
-      <c r="I59" s="121"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
       <c r="G60" s="19"/>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
       <c r="G61" s="19"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
       <c r="G62" s="19"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
       <c r="G63" s="19"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
       <c r="G64" s="19"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
       <c r="G65" s="19"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="C63:F63"/>
     <mergeCell ref="H63:I63"/>
     <mergeCell ref="C64:F64"/>
@@ -4426,105 +4519,6 @@
     <mergeCell ref="H61:I61"/>
     <mergeCell ref="C62:F62"/>
     <mergeCell ref="H62:I62"/>
-    <mergeCell ref="C53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="C57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4534,193 +4528,274 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A1" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="13" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" ht="13" customHeight="1">
+      <c r="A2" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="1:8" ht="13" customHeight="1">
+      <c r="A3" s="120" t="s">
         <v>281</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="13" customHeight="1">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" ht="13" customHeight="1">
+      <c r="A4" s="120" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="13" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" ht="13" customHeight="1">
+      <c r="A5" s="120" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" ht="13" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" customHeight="1">
+      <c r="A6" s="120" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" ht="13" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" customHeight="1">
+      <c r="A7" s="120" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="13" customHeight="1">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" customHeight="1">
+      <c r="A8" s="120" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5" ht="13" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" customHeight="1">
+      <c r="A9" s="120" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="13" customHeight="1">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" customHeight="1">
+      <c r="A10" s="120" t="s">
         <v>291</v>
       </c>
-      <c r="B10" t="s">
-        <v>496</v>
+      <c r="B10" s="51" t="s">
+        <v>487</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" customHeight="1">
+      <c r="A11" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" customHeight="1">
+      <c r="A12" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="23" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" customHeight="1">
+      <c r="A13" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="29" t="s">
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" customHeight="1">
+      <c r="A14" s="123" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>492</v>
+      </c>
+      <c r="E14" s="124" t="s">
+        <v>609</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>610</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>611</v>
+      </c>
+      <c r="H14" s="123" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13" customHeight="1">
+      <c r="A15" s="123"/>
+      <c r="B15" s="123" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124" t="s">
+        <v>495</v>
+      </c>
+      <c r="E15" s="124" t="s">
+        <v>612</v>
+      </c>
+      <c r="F15" s="124" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" s="124" t="s">
+        <v>614</v>
+      </c>
+      <c r="H15" s="124" t="s">
         <v>496</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" customHeight="1">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="66">
-        <v>833</v>
-      </c>
-      <c r="C17" s="22">
-        <v>1</v>
-      </c>
-      <c r="D17">
+    </row>
+    <row r="16" spans="1:8" ht="13" customHeight="1">
+      <c r="A16" s="125"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" customHeight="1">
+      <c r="A17" s="51">
+        <v>1</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17" s="122">
+        <v>1</v>
+      </c>
+      <c r="D17" s="51">
         <v>10000</v>
       </c>
-      <c r="E17" t="s">
-        <v>506</v>
+      <c r="E17" s="51">
+        <v>50000</v>
+      </c>
+      <c r="F17" s="51">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="51">
+        <v>500000</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5512,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -5546,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -5580,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -5614,7 +5689,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6600,7 +6675,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -6614,7 +6689,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -6628,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -6642,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -6808,7 +6883,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -7127,7 +7202,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="63">
+      <c r="F17" s="61">
         <v>1000000001</v>
       </c>
       <c r="G17" s="1"/>
@@ -7135,7 +7210,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="50" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -7159,7 +7234,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="50" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -7175,7 +7250,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="61">
         <v>1000000002</v>
       </c>
       <c r="G19" s="1"/>
@@ -7183,7 +7258,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="50" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -7207,7 +7282,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="50" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -7216,16 +7291,16 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="K21" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -7234,16 +7309,16 @@
         <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="K22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -7252,16 +7327,16 @@
         <v>180</v>
       </c>
       <c r="C23" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="K23" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -7270,16 +7345,16 @@
         <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="K24" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -8169,8 +8244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8344,8 +8419,8 @@
       <c r="A17" s="26" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="80" t="s">
-        <v>539</v>
+      <c r="B17" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="D17" s="54">
         <v>1</v>
@@ -8556,7 +8631,7 @@
         <v>425</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D27" s="54">
         <v>1</v>
@@ -8599,7 +8674,7 @@
         <v>429</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D29" s="54">
         <v>1</v>
@@ -8618,7 +8693,7 @@
       <c r="A30" t="s">
         <v>430</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="62" t="s">
         <v>431</v>
       </c>
       <c r="D30" s="54">
@@ -8638,8 +8713,8 @@
       <c r="A31" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="B31" s="64" t="s">
-        <v>515</v>
+      <c r="B31" s="62" t="s">
+        <v>506</v>
       </c>
       <c r="D31" s="54">
         <v>1</v>
@@ -8661,8 +8736,8 @@
       <c r="A32" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="79" t="s">
-        <v>535</v>
+      <c r="B32" s="76" t="s">
+        <v>525</v>
       </c>
       <c r="D32" s="54">
         <v>1</v>
@@ -8684,8 +8759,8 @@
       <c r="A33" t="s">
         <v>436</v>
       </c>
-      <c r="B33" s="79" t="s">
-        <v>535</v>
+      <c r="B33" s="76" t="s">
+        <v>525</v>
       </c>
       <c r="D33" s="54">
         <v>1</v>
@@ -8708,7 +8783,7 @@
         <v>438</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>516</v>
+        <v>607</v>
       </c>
       <c r="D34" s="54">
         <v>1</v>
@@ -8746,7 +8821,7 @@
         <v>440</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>491</v>
+        <v>608</v>
       </c>
       <c r="D36" s="54">
         <v>1</v>
@@ -8766,7 +8841,7 @@
         <v>441</v>
       </c>
       <c r="B37" s="60">
-        <v>43035</v>
+        <v>43086</v>
       </c>
       <c r="D37" s="54">
         <v>1</v>
@@ -8786,7 +8861,7 @@
         <v>442</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D38" s="54">
         <v>1</v>
@@ -8806,7 +8881,7 @@
         <v>443</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D39" s="54">
         <v>1</v>
@@ -8846,8 +8921,8 @@
       <c r="A41" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="B41" s="80" t="s">
-        <v>539</v>
+      <c r="B41" s="77" t="s">
+        <v>529</v>
       </c>
       <c r="D41" s="54">
         <v>1</v>
@@ -8988,10 +9063,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="26" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B48" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D48" s="54">
         <v>1</v>
@@ -9006,12 +9081,12 @@
         <v>1</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -9026,12 +9101,12 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -9046,15 +9121,15 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18">
-      <c r="A51" s="108" t="s">
-        <v>613</v>
+      <c r="A51" s="104" t="s">
+        <v>598</v>
       </c>
       <c r="B51" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D51" s="54">
         <v>1</v>
@@ -9068,8 +9143,8 @@
       <c r="G51" s="54">
         <v>1</v>
       </c>
-      <c r="H51" s="78" t="s">
-        <v>614</v>
+      <c r="H51" s="75" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -9498,28 +9573,28 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="67">
+      <c r="A29" s="64">
         <v>13</v>
       </c>
-      <c r="B29" s="68" t="s">
-        <v>508</v>
+      <c r="B29" s="65" t="s">
+        <v>499</v>
       </c>
       <c r="C29" s="60">
         <v>1</v>
       </c>
-      <c r="D29" s="67">
-        <v>1</v>
-      </c>
-      <c r="E29" s="67"/>
+      <c r="D29" s="64">
+        <v>1</v>
+      </c>
+      <c r="E29" s="64"/>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="68" t="s">
-        <v>507</v>
+      <c r="G29" s="65" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="67"/>
+      <c r="A30" s="64"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9528,201 +9603,328 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.5"/>
-    <col min="3" max="3" width="17.5"/>
-    <col min="4" max="4" width="13.33203125"/>
-    <col min="5" max="5" width="12.6640625"/>
-    <col min="6" max="7" width="16.6640625"/>
-    <col min="8" max="1025" width="8.1640625"/>
+    <col min="1" max="1" width="26.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="19" style="67" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="67" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="67" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="67" customWidth="1"/>
+    <col min="10" max="1025" width="8.6640625" style="67" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>484</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1" s="68"/>
+    </row>
+    <row r="2" spans="1:9" ht="16">
+      <c r="A2" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>485</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+    </row>
+    <row r="3" spans="1:9" ht="16">
+      <c r="A3" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="69" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+    </row>
+    <row r="4" spans="1:9" ht="16">
+      <c r="A4" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="23" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" ht="16">
+      <c r="A5" s="66" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="B5" s="69" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="66" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A7" s="66" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="66" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+    </row>
+    <row r="10" spans="1:9" ht="16">
+      <c r="A10" s="66" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>592</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="71" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="71" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="71" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>486</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="57" t="s">
-        <v>593</v>
-      </c>
-      <c r="B17" t="s">
-        <v>594</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>595</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>596</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>594</v>
-      </c>
-      <c r="C18" s="99" t="s">
-        <v>595</v>
-      </c>
-      <c r="D18" s="99"/>
-      <c r="E18" s="57">
-        <v>1</v>
-      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="74" t="s">
+        <v>504</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18">
+      <c r="A17" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18">
+      <c r="A18" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18">
+      <c r="A19" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18">
+      <c r="A20" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18">
+      <c r="A21" s="67" t="s">
+        <v>601</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18">
+      <c r="A22" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18">
+      <c r="A23" s="67" t="s">
+        <v>603</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
+      <c r="H30" s="75"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" ht="18">
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+    </row>
+    <row r="32" spans="1:9" ht="18">
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+    </row>
+    <row r="33" spans="8:9" ht="18">
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9731,328 +9933,530 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:AMK33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" style="70" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="19" style="70" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="70" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="70" customWidth="1"/>
-    <col min="10" max="1025" width="8.6640625" style="70" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="70"/>
+    <col min="1" max="1" width="22.33203125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="80" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="88" customWidth="1"/>
+    <col min="5" max="5" width="10" style="80" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="80" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="80" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="80" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="80" customWidth="1"/>
+    <col min="11" max="1025" width="7" style="80" customWidth="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="70" t="s">
-        <v>509</v>
-      </c>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="79" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="B2" s="71" t="s">
-        <v>509</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="69" t="s">
+      <c r="B2" s="82" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="78" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-    </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="69" t="s">
+      <c r="B3" s="83" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="84"/>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="83" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-    </row>
-    <row r="5" spans="1:9" ht="16">
-      <c r="A5" s="69" t="s">
+      <c r="D4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="69" t="s">
+      <c r="B5" s="82" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="81"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A7" s="69" t="s">
+      <c r="B6" s="82"/>
+      <c r="D6" s="81"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="73"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="69" t="s">
+      <c r="B7" s="82"/>
+      <c r="D7" s="81"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="78" t="s">
         <v>289</v>
       </c>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="69" t="s">
+      <c r="B8" s="82"/>
+      <c r="D8" s="81"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-    </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="69" t="s">
+      <c r="B9" s="82"/>
+      <c r="D9" s="81"/>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>511</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="74" t="s">
+      <c r="B10" s="82" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="81"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="74" t="s">
+      <c r="B11" s="81"/>
+      <c r="D11" s="81"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="74" t="s">
+      <c r="B12" s="86"/>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A14" s="77" t="s">
-        <v>511</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77" t="s">
-        <v>513</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="70" t="s">
-        <v>522</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="78" t="s">
-        <v>524</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="78" t="s">
-        <v>588</v>
-      </c>
-      <c r="B18" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="78" t="s">
-        <v>590</v>
-      </c>
-      <c r="B19" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="70" t="s">
-        <v>615</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="70" t="s">
-        <v>616</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="70" t="s">
-        <v>617</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="70" t="s">
-        <v>618</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="H30" s="78"/>
-      <c r="I30"/>
-    </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-    </row>
-    <row r="33" spans="8:9" ht="18">
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
+      <c r="B13" s="86"/>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>535</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>538</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>539</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>540</v>
+      </c>
+      <c r="J14" s="87" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" s="87"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1">
+      <c r="A17" s="80">
+        <v>0</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D17" s="80">
+        <v>371</v>
+      </c>
+      <c r="F17" s="80" t="s">
+        <v>544</v>
+      </c>
+      <c r="H17" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="80">
+        <v>0</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D18" s="80">
+        <v>371</v>
+      </c>
+      <c r="F18" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H18" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="80">
+        <v>0</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" s="80">
+        <v>371</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>549</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="80">
+        <v>0</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>546</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" s="80">
+        <v>371</v>
+      </c>
+      <c r="F20" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H20" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="80">
+        <v>0</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D21" s="80">
+        <v>313</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H21" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="80">
+        <v>0</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D22" s="80">
+        <v>313</v>
+      </c>
+      <c r="F22" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H22" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="80">
+        <v>0</v>
+      </c>
+      <c r="B23" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" s="80">
+        <v>313</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="H23" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="80">
+        <v>0</v>
+      </c>
+      <c r="B24" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" s="80">
+        <v>712</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H24" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="80">
+        <v>0</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D25" s="80">
+        <v>712</v>
+      </c>
+      <c r="F25" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="80">
+        <v>0</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D26" s="80">
+        <v>712</v>
+      </c>
+      <c r="F26" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="H26" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="80">
+        <v>0</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D27" s="80">
+        <v>316</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="80">
+        <v>0</v>
+      </c>
+      <c r="B28" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="80">
+        <v>316</v>
+      </c>
+      <c r="F28" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="80">
+        <v>0</v>
+      </c>
+      <c r="B29" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D29" s="80">
+        <v>316</v>
+      </c>
+      <c r="F29" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="80">
+        <v>0</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="80">
+        <v>321</v>
+      </c>
+      <c r="F30" s="80" t="s">
+        <v>551</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="80">
+        <v>0</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="D31" s="80">
+        <v>321</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>547</v>
+      </c>
+      <c r="H31" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="80">
+        <v>0</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D32" s="80">
+        <v>321</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="80">
+        <v>0</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>552</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>548</v>
+      </c>
+      <c r="D33" s="88">
+        <v>833</v>
+      </c>
+      <c r="F33" s="89">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>545</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -10148,901 +10552,369 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:AMK33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="83" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="83" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="91" customWidth="1"/>
-    <col min="5" max="5" width="10" style="83" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="83" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="83" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="83" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="83" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="83" customWidth="1"/>
-    <col min="11" max="1025" width="7" style="83" customWidth="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="91"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="81" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>540</v>
-      </c>
-      <c r="D1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="81" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>541</v>
-      </c>
-      <c r="D2" s="84"/>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="81" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="87"/>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="87"/>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>541</v>
-      </c>
-      <c r="D5" s="84"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="D6" s="84"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="81" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="D7" s="84"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="D8" s="84"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="81" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="D9" s="84"/>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="81" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>542</v>
-      </c>
-      <c r="D10" s="84"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="D11" s="84"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="D12" s="84"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="D13" s="84"/>
-    </row>
-    <row r="14" spans="1:11" ht="16">
-      <c r="A14" s="90" t="s">
-        <v>352</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>543</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>544</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>545</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>546</v>
-      </c>
-      <c r="F14" s="90" t="s">
-        <v>547</v>
-      </c>
-      <c r="G14" s="90" t="s">
-        <v>548</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>549</v>
-      </c>
-      <c r="I14" s="90" t="s">
-        <v>550</v>
-      </c>
-      <c r="J14" s="90" t="s">
-        <v>551</v>
-      </c>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
-      <c r="A17" s="83">
-        <v>0</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>552</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D17" s="83">
-        <v>371</v>
-      </c>
-      <c r="F17" s="83" t="s">
-        <v>554</v>
-      </c>
-      <c r="H17" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="83">
-        <v>0</v>
-      </c>
-      <c r="B18" s="83" t="s">
-        <v>556</v>
-      </c>
-      <c r="C18" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D18" s="83">
-        <v>371</v>
-      </c>
-      <c r="F18" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="H18" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="83">
-        <v>0</v>
-      </c>
-      <c r="B19" s="83" t="s">
-        <v>556</v>
-      </c>
-      <c r="C19" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D19" s="83">
-        <v>371</v>
-      </c>
-      <c r="F19" s="83" t="s">
-        <v>559</v>
-      </c>
-      <c r="H19" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="83">
-        <v>0</v>
-      </c>
-      <c r="B20" s="83" t="s">
-        <v>556</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="D20" s="83">
-        <v>371</v>
-      </c>
-      <c r="F20" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="H20" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="83">
-        <v>0</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C21" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="D21" s="83">
-        <v>313</v>
-      </c>
-      <c r="F21" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="H21" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="83">
-        <v>0</v>
-      </c>
-      <c r="B22" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D22" s="83">
-        <v>313</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="H22" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="83">
-        <v>0</v>
-      </c>
-      <c r="B23" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D23" s="83">
-        <v>313</v>
-      </c>
-      <c r="F23" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="83">
-        <v>0</v>
-      </c>
-      <c r="B24" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="D24" s="83">
-        <v>712</v>
-      </c>
-      <c r="F24" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="H24" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="83">
-        <v>0</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D25" s="83">
-        <v>712</v>
-      </c>
-      <c r="F25" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="H25" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="83">
-        <v>0</v>
-      </c>
-      <c r="B26" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" s="83">
-        <v>712</v>
-      </c>
-      <c r="F26" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="H26" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="83">
-        <v>0</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C27" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D27" s="83">
-        <v>316</v>
-      </c>
-      <c r="F27" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="H27" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="83">
-        <v>0</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C28" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D28" s="83">
-        <v>316</v>
-      </c>
-      <c r="F28" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="H28" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="83">
-        <v>0</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="D29" s="83">
-        <v>316</v>
-      </c>
-      <c r="F29" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="H29" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="83">
-        <v>0</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C30" s="83" t="s">
-        <v>560</v>
-      </c>
-      <c r="D30" s="83">
-        <v>321</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>561</v>
-      </c>
-      <c r="H30" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="83">
-        <v>0</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>553</v>
-      </c>
-      <c r="D31" s="83">
-        <v>321</v>
-      </c>
-      <c r="F31" s="83" t="s">
-        <v>557</v>
-      </c>
-      <c r="H31" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="83">
-        <v>0</v>
-      </c>
-      <c r="B32" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C32" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D32" s="83">
-        <v>321</v>
-      </c>
-      <c r="F32" s="83" t="s">
-        <v>563</v>
-      </c>
-      <c r="H32" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="83">
-        <v>0</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>562</v>
-      </c>
-      <c r="C33" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="D33" s="91">
-        <v>833</v>
-      </c>
-      <c r="F33" s="92">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H33" s="83" t="s">
-        <v>555</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="24.83203125" style="91" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="91" customWidth="1"/>
-    <col min="4" max="4" width="89.1640625" style="91" customWidth="1"/>
-    <col min="5" max="1020" width="8.1640625" style="91" customWidth="1"/>
-    <col min="1021" max="1021" width="8.83203125" style="91" customWidth="1"/>
-    <col min="1022" max="16384" width="8.83203125" style="91"/>
+    <col min="1" max="1" width="24.83203125" style="88" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="88" customWidth="1"/>
+    <col min="4" max="4" width="89.1640625" style="88" customWidth="1"/>
+    <col min="5" max="1020" width="8.1640625" style="88" customWidth="1"/>
+    <col min="1021" max="1021" width="8.83203125" style="88" customWidth="1"/>
+    <col min="1022" max="16384" width="8.83203125" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" ht="16">
+      <c r="A2" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="81"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" s="84"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="84"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="81"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="81"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="81"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="81"/>
+    </row>
+    <row r="14" spans="1:4" ht="16">
+      <c r="A14" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16">
+      <c r="A15" s="90" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>558</v>
+      </c>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91" t="s">
+        <v>559</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="92">
+        <v>100</v>
+      </c>
+      <c r="B17" s="92">
+        <v>0</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>560</v>
+      </c>
+      <c r="D17" s="88" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="92">
+        <v>140</v>
+      </c>
+      <c r="B18" s="92">
+        <v>0</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>562</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="92">
+        <v>141</v>
+      </c>
+      <c r="B19" s="92">
+        <v>0</v>
+      </c>
+      <c r="C19" s="88" t="s">
         <v>564</v>
       </c>
-      <c r="C1" s="84"/>
-    </row>
-    <row r="2" spans="1:4" ht="16">
-      <c r="A2" s="88" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="84"/>
-    </row>
-    <row r="3" spans="1:4" ht="16">
-      <c r="A3" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>347</v>
-      </c>
-      <c r="C3" s="87"/>
-    </row>
-    <row r="4" spans="1:4" ht="16">
-      <c r="A4" s="88" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="87"/>
-    </row>
-    <row r="5" spans="1:4" ht="16">
-      <c r="A5" s="88" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="84"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="88" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="88" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-    </row>
-    <row r="10" spans="1:4" ht="16">
-      <c r="A10" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="B10" s="84" t="s">
-        <v>349</v>
-      </c>
-      <c r="C10" s="84"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="88" t="s">
-        <v>293</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="88" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="84"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="84"/>
-    </row>
-    <row r="14" spans="1:4" ht="16">
-      <c r="A14" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="B14" s="90" t="s">
+      <c r="D19" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C14" s="90" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="16">
+      <c r="A20" s="92">
+        <v>146</v>
+      </c>
+      <c r="B20" s="92">
+        <v>0</v>
+      </c>
+      <c r="C20" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="D14" s="90" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
-      <c r="A15" s="93" t="s">
+      <c r="D20" s="93" t="s">
         <v>567</v>
       </c>
-      <c r="B15" s="93" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="92">
+        <v>148</v>
+      </c>
+      <c r="B21" s="92">
+        <v>0</v>
+      </c>
+      <c r="C21" s="88" t="s">
         <v>568</v>
       </c>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94" t="s">
+      <c r="D21" s="88" t="s">
         <v>569</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="95">
-        <v>100</v>
-      </c>
-      <c r="B17" s="95">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="92">
+        <v>151</v>
+      </c>
+      <c r="B22" s="92">
+        <v>2</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>570</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16">
+      <c r="A23" s="92">
+        <v>155</v>
+      </c>
+      <c r="B23" s="92">
         <v>0</v>
       </c>
-      <c r="C17" s="91" t="s">
-        <v>570</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="95">
-        <v>140</v>
-      </c>
-      <c r="B18" s="95">
-        <v>0</v>
-      </c>
-      <c r="C18" s="91" t="s">
+      <c r="C23" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D23" s="93" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="92">
+        <v>160</v>
+      </c>
+      <c r="B24" s="92">
+        <v>1</v>
+      </c>
+      <c r="C24" s="88" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="95">
-        <v>141</v>
-      </c>
-      <c r="B19" s="95">
-        <v>0</v>
-      </c>
-      <c r="C19" s="91" t="s">
+      <c r="D24" s="88" t="s">
         <v>574</v>
       </c>
-      <c r="D19" s="91" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="92">
+        <v>189</v>
+      </c>
+      <c r="B25" s="92">
+        <v>2</v>
+      </c>
+      <c r="C25" s="88" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
-      <c r="A20" s="95">
-        <v>146</v>
-      </c>
-      <c r="B20" s="95">
-        <v>0</v>
-      </c>
-      <c r="C20" s="91" t="s">
+      <c r="D25" s="88" t="s">
         <v>576</v>
       </c>
-      <c r="D20" s="96" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="92">
+        <v>190</v>
+      </c>
+      <c r="B26" s="92">
+        <v>1</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>573</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="95">
-        <v>148</v>
-      </c>
-      <c r="B21" s="95">
-        <v>0</v>
-      </c>
-      <c r="C21" s="91" t="s">
-        <v>578</v>
-      </c>
-      <c r="D21" s="91" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="95">
-        <v>151</v>
-      </c>
-      <c r="B22" s="95">
-        <v>2</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>580</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
-      <c r="A23" s="95">
-        <v>155</v>
-      </c>
-      <c r="B23" s="95">
-        <v>0</v>
-      </c>
-      <c r="C23" s="91" t="s">
-        <v>582</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="95">
-        <v>160</v>
-      </c>
-      <c r="B24" s="95">
-        <v>1</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>583</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="95">
-        <v>189</v>
-      </c>
-      <c r="B25" s="95">
-        <v>2</v>
-      </c>
-      <c r="C25" s="91" t="s">
-        <v>585</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="95">
-        <v>190</v>
-      </c>
-      <c r="B26" s="95">
-        <v>1</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>583</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>587</v>
-      </c>
-    </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="94"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="97"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="94"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="97"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="97"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="94"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="97"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="94"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="97"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="94"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="97"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="97"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="94"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="97"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="94"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="94"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="97"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="94"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -12193,7 +12065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -12520,51 +12392,51 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="100" t="s">
-        <v>597</v>
-      </c>
-      <c r="C24" s="101">
-        <v>1</v>
-      </c>
-      <c r="D24" s="102">
-        <v>1</v>
-      </c>
-      <c r="E24" s="100" t="s">
-        <v>598</v>
+      <c r="B24" s="96" t="s">
+        <v>582</v>
+      </c>
+      <c r="C24" s="97">
+        <v>1</v>
+      </c>
+      <c r="D24" s="98">
+        <v>1</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80">
-      <c r="A25" s="103">
+      <c r="A25" s="99">
         <v>9</v>
       </c>
-      <c r="B25" s="104" t="s">
-        <v>599</v>
-      </c>
-      <c r="C25" s="105">
+      <c r="B25" s="100" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" s="101">
         <v>0</v>
       </c>
-      <c r="D25" s="106">
-        <v>1</v>
-      </c>
-      <c r="E25" s="106" t="s">
-        <v>600</v>
+      <c r="D25" s="102">
+        <v>1</v>
+      </c>
+      <c r="E25" s="102" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="96">
-      <c r="A26" s="103">
+      <c r="A26" s="99">
         <v>10</v>
       </c>
-      <c r="B26" s="104" t="s">
-        <v>601</v>
-      </c>
-      <c r="C26" s="105">
+      <c r="B26" s="100" t="s">
+        <v>586</v>
+      </c>
+      <c r="C26" s="101">
         <v>0</v>
       </c>
-      <c r="D26" s="106">
-        <v>1</v>
-      </c>
-      <c r="E26" s="106" t="s">
-        <v>602</v>
+      <c r="D26" s="102">
+        <v>1</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -12828,49 +12700,49 @@
         <v>1</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="107">
+      <c r="A25" s="103">
         <v>9</v>
       </c>
-      <c r="B25" s="107">
+      <c r="B25" s="103">
         <v>0</v>
       </c>
-      <c r="C25" s="107">
-        <v>1</v>
-      </c>
-      <c r="D25" s="107" t="s">
-        <v>604</v>
+      <c r="C25" s="103">
+        <v>1</v>
+      </c>
+      <c r="D25" s="103" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="107">
+      <c r="A26" s="103">
         <v>10</v>
       </c>
-      <c r="B26" s="107">
+      <c r="B26" s="103">
         <v>0</v>
       </c>
-      <c r="C26" s="107">
-        <v>1</v>
-      </c>
-      <c r="D26" s="107" t="s">
-        <v>605</v>
+      <c r="C26" s="103">
+        <v>1</v>
+      </c>
+      <c r="D26" s="103" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="107">
+      <c r="A27" s="103">
         <v>11</v>
       </c>
-      <c r="B27" s="107">
+      <c r="B27" s="103">
         <v>0</v>
       </c>
-      <c r="C27" s="107">
-        <v>1</v>
-      </c>
-      <c r="D27" s="107" t="s">
-        <v>606</v>
+      <c r="C27" s="103">
+        <v>1</v>
+      </c>
+      <c r="D27" s="103" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -12884,7 +12756,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -12901,7 +12773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:G41"/>
     </sheetView>
   </sheetViews>
@@ -13948,7 +13820,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="44"/>
     </row>
-    <row r="17" spans="1:25" s="63" customFormat="1">
+    <row r="17" spans="1:25" s="61" customFormat="1">
       <c r="A17" s="1">
         <v>101</v>
       </c>
@@ -13966,10 +13838,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -13990,10 +13862,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="46" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -14029,10 +13901,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -14068,10 +13940,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -14996,8 +14868,8 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" s="65" customFormat="1">
-      <c r="A17" s="63">
+    <row r="17" spans="1:26" s="63" customFormat="1">
+      <c r="A17" s="61">
         <v>1000000001</v>
       </c>
       <c r="B17" s="45">
@@ -15008,29 +14880,29 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-      <c r="S17" s="63"/>
-      <c r="T17" s="63"/>
-      <c r="U17" s="63"/>
-      <c r="V17" s="63"/>
-      <c r="W17" s="63"/>
-      <c r="X17" s="63"/>
-      <c r="Y17" s="63"/>
-      <c r="Z17" s="63"/>
+        <v>508</v>
+      </c>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1">
@@ -15044,7 +14916,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="26" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -15069,7 +14941,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="63">
+      <c r="A19" s="61">
         <v>1000000002</v>
       </c>
       <c r="B19" s="46">
@@ -15080,7 +14952,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="26" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -15116,7 +14988,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="26" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -15778,7 +15650,7 @@
         <v>278</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13" customHeight="1">
@@ -15786,7 +15658,7 @@
         <v>280</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13" customHeight="1">
@@ -15810,7 +15682,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13" customHeight="1">
@@ -15842,7 +15714,7 @@
         <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13" customHeight="1">
@@ -15870,7 +15742,7 @@
         <v>292</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13" customHeight="1">
